--- a/HL7.xlsx
+++ b/HL7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ImageSniffer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA1B681-EF11-41BD-98A4-92DC51FA4ADF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595EA286-CD60-4609-B854-712B32C7D27F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{1E3C1813-A40E-48A3-AC77-AD11C58CA878}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="6" xr2:uid="{1E3C1813-A40E-48A3-AC77-AD11C58CA878}"/>
   </bookViews>
   <sheets>
     <sheet name="MSH" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="PD1" sheetId="3" r:id="rId3"/>
     <sheet name="PV1" sheetId="4" r:id="rId4"/>
     <sheet name="OBR" sheetId="5" r:id="rId5"/>
+    <sheet name="ORC" sheetId="6" r:id="rId6"/>
+    <sheet name="DG1" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'DG1'!$A$1:$G$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">OBR!$A$1:$F$44</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PID!$A$1:$F$31</definedName>
   </definedNames>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="255">
   <si>
     <t>SEQ</t>
   </si>
@@ -648,6 +651,156 @@
   </si>
   <si>
     <t>Planned Patient Transport Comment</t>
+  </si>
+  <si>
+    <t>Order Control</t>
+  </si>
+  <si>
+    <t>Placer Group Number</t>
+  </si>
+  <si>
+    <t>Order Status</t>
+  </si>
+  <si>
+    <t>Response Flag</t>
+  </si>
+  <si>
+    <t>EIP</t>
+  </si>
+  <si>
+    <t>Parent Order</t>
+  </si>
+  <si>
+    <t>Date/Time of Transaction</t>
+  </si>
+  <si>
+    <t>Entered By</t>
+  </si>
+  <si>
+    <t>Verified By</t>
+  </si>
+  <si>
+    <t>Enterer's Location</t>
+  </si>
+  <si>
+    <t>Call Back Phone Number</t>
+  </si>
+  <si>
+    <t>Order Effective Date/Time</t>
+  </si>
+  <si>
+    <t>Order Control Code Reason</t>
+  </si>
+  <si>
+    <t>Entering Organization</t>
+  </si>
+  <si>
+    <t>Entering Device</t>
+  </si>
+  <si>
+    <t>Action By</t>
+  </si>
+  <si>
+    <t>Advanced Beneficiary Notice Code</t>
+  </si>
+  <si>
+    <t>Ordering Facility Name</t>
+  </si>
+  <si>
+    <t>Ordering Facility Address</t>
+  </si>
+  <si>
+    <t>Ordering Facility Phone Number</t>
+  </si>
+  <si>
+    <t>Ordering Provider Address</t>
+  </si>
+  <si>
+    <t>CWE</t>
+  </si>
+  <si>
+    <t>Order Status Modifier</t>
+  </si>
+  <si>
+    <t>Advanced Beneficiary Notice Override Reason</t>
+  </si>
+  <si>
+    <t>Filler's Expected Availability Date/Time</t>
+  </si>
+  <si>
+    <t>Confidentiality Code</t>
+  </si>
+  <si>
+    <t>Order Type</t>
+  </si>
+  <si>
+    <t>CNE</t>
+  </si>
+  <si>
+    <t>Enterer Authorization Mode</t>
+  </si>
+  <si>
+    <t>Parent Universal Service Identifier</t>
+  </si>
+  <si>
+    <t>Set ID - DG1</t>
+  </si>
+  <si>
+    <t>Diagnosis Coding Method</t>
+  </si>
+  <si>
+    <t>Diagnosis Code - DG1</t>
+  </si>
+  <si>
+    <t>Diagnosis Description</t>
+  </si>
+  <si>
+    <t>Diagnosis Date/Time</t>
+  </si>
+  <si>
+    <t>Diagnosis Type</t>
+  </si>
+  <si>
+    <t>Major Diagnostic Category</t>
+  </si>
+  <si>
+    <t>Diagnostic Related Group</t>
+  </si>
+  <si>
+    <t>DRG Approval Indicator</t>
+  </si>
+  <si>
+    <t>DRG Grouper Review Code</t>
+  </si>
+  <si>
+    <t>Outlier Type</t>
+  </si>
+  <si>
+    <t>Outlier Days</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Outlier Cost</t>
+  </si>
+  <si>
+    <t>Grouper Version And Type</t>
+  </si>
+  <si>
+    <t>Diagnosis Priority</t>
+  </si>
+  <si>
+    <t>Diagnosing Clinician</t>
+  </si>
+  <si>
+    <t>Diagnosis Classification</t>
+  </si>
+  <si>
+    <t>Confidential Indicator</t>
+  </si>
+  <si>
+    <t>Attestation Date/Time</t>
   </si>
 </sst>
 </file>
@@ -3424,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86CECDEA-5A65-4BEB-A9DD-DB6877B38752}">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4228,4 +4381,1137 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56BD4B4-C102-453B-9EF7-6D92728601A0}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>119</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>38</v>
+      </c>
+      <c r="G6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>250</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>250</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>250</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>250</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>250</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>250</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>250</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>339</v>
+      </c>
+      <c r="G21" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>250</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>250</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>250</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>226</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>552</v>
+      </c>
+      <c r="G27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>250</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>177</v>
+      </c>
+      <c r="G29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>250</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>482</v>
+      </c>
+      <c r="G30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>250</v>
+      </c>
+      <c r="C31" t="s">
+        <v>232</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>483</v>
+      </c>
+      <c r="G31" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>250</v>
+      </c>
+      <c r="C32" t="s">
+        <v>226</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>234</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBDF066F-0EB3-429D-B334-2D92BFC1D4CE}">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>136</v>
+      </c>
+      <c r="G10" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>359</v>
+      </c>
+      <c r="G16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>228</v>
+      </c>
+      <c r="G18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>